--- a/img_user/aumza/testrun/excel_table_groups_ave_std.xlsx
+++ b/img_user/aumza/testrun/excel_table_groups_ave_std.xlsx
@@ -50,19 +50,19 @@
     <t>shannon_hci</t>
   </si>
   <si>
-    <t>S1_1_16s</t>
+    <t>S1_1_16s_S1</t>
   </si>
   <si>
     <t>ave</t>
   </si>
   <si>
-    <t>S2_1_16s</t>
-  </si>
-  <si>
-    <t>S3_1_16s</t>
-  </si>
-  <si>
-    <t>S4_1_16s</t>
+    <t>S2_1_16s_S3</t>
+  </si>
+  <si>
+    <t>S3_1_16s_S5</t>
+  </si>
+  <si>
+    <t>S4_1_16s_S7</t>
   </si>
   <si>
     <t>std</t>
@@ -468,31 +468,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>10353</v>
+        <v>10392</v>
       </c>
       <c r="D2">
-        <v>0.98613</v>
+        <v>0.9865</v>
       </c>
       <c r="E2">
-        <v>427.651</v>
+        <v>422.809</v>
       </c>
       <c r="F2">
-        <v>607.2749250000001</v>
+        <v>619.458357</v>
       </c>
       <c r="G2">
-        <v>543.735531</v>
+        <v>548.492838</v>
       </c>
       <c r="H2">
-        <v>705.601556</v>
+        <v>730.504848</v>
       </c>
       <c r="I2">
-        <v>4.454682</v>
+        <v>4.446831</v>
       </c>
       <c r="J2">
-        <v>4.424837</v>
+        <v>4.417044</v>
       </c>
       <c r="K2">
-        <v>4.484526</v>
+        <v>4.476619</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,31 +503,31 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>10353</v>
+        <v>10392</v>
       </c>
       <c r="D3">
-        <v>0.987443</v>
+        <v>0.987298</v>
       </c>
       <c r="E3">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F3">
-        <v>565.118644</v>
+        <v>571.1</v>
       </c>
       <c r="G3">
-        <v>513.406874</v>
+        <v>518.9803000000001</v>
       </c>
       <c r="H3">
-        <v>646.408995</v>
+        <v>652.752796</v>
       </c>
       <c r="I3">
-        <v>4.505935</v>
+        <v>4.515129</v>
       </c>
       <c r="J3">
-        <v>4.476623</v>
+        <v>4.485882</v>
       </c>
       <c r="K3">
-        <v>4.535246</v>
+        <v>4.544376</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,31 +538,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>10353</v>
+        <v>10392</v>
       </c>
       <c r="D4">
-        <v>0.989516</v>
+        <v>0.989374</v>
       </c>
       <c r="E4">
-        <v>311.144</v>
+        <v>312.952</v>
       </c>
       <c r="F4">
-        <v>433.586135</v>
+        <v>443.486783</v>
       </c>
       <c r="G4">
-        <v>385.774668</v>
+        <v>392.671407</v>
       </c>
       <c r="H4">
-        <v>512.030967</v>
+        <v>526.69585</v>
       </c>
       <c r="I4">
-        <v>3.507024</v>
+        <v>3.509212</v>
       </c>
       <c r="J4">
-        <v>3.47223</v>
+        <v>3.474504</v>
       </c>
       <c r="K4">
-        <v>3.541819</v>
+        <v>3.543921</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,31 +573,31 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>10353</v>
+        <v>10392</v>
       </c>
       <c r="D5">
-        <v>0.986004</v>
+        <v>0.987154</v>
       </c>
       <c r="E5">
-        <v>505.785</v>
+        <v>497.734</v>
       </c>
       <c r="F5">
-        <v>653.125392</v>
+        <v>617.486573</v>
       </c>
       <c r="G5">
-        <v>601.961182</v>
+        <v>574.797917</v>
       </c>
       <c r="H5">
-        <v>731.510551</v>
+        <v>683.8249479999999</v>
       </c>
       <c r="I5">
-        <v>4.744683</v>
+        <v>4.744928</v>
       </c>
       <c r="J5">
-        <v>4.715381</v>
+        <v>4.715788</v>
       </c>
       <c r="K5">
-        <v>4.773984</v>
+        <v>4.774068</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000487</v>
+        <v>0.000499</v>
       </c>
       <c r="E6">
-        <v>4.044156</v>
+        <v>4.052471</v>
       </c>
       <c r="F6">
-        <v>24.087896</v>
+        <v>28.667711</v>
       </c>
       <c r="G6">
-        <v>16.615837</v>
+        <v>19.262954</v>
       </c>
       <c r="H6">
-        <v>35.740636</v>
+        <v>43.606979</v>
       </c>
       <c r="I6">
-        <v>0.005494</v>
+        <v>0.005475</v>
       </c>
       <c r="J6">
-        <v>0.005495</v>
+        <v>0.005481</v>
       </c>
       <c r="K6">
-        <v>0.005495</v>
+        <v>0.00547</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000259</v>
+        <v>0.000215</v>
       </c>
       <c r="E8">
-        <v>1.948144</v>
+        <v>1.723861</v>
       </c>
       <c r="F8">
-        <v>11.585268</v>
+        <v>10.077485</v>
       </c>
       <c r="G8">
-        <v>7.738961</v>
+        <v>6.717046</v>
       </c>
       <c r="H8">
-        <v>17.815445</v>
+        <v>15.560486</v>
       </c>
       <c r="I8">
-        <v>0.0035</v>
+        <v>0.003074</v>
       </c>
       <c r="J8">
-        <v>0.003498</v>
+        <v>0.003074</v>
       </c>
       <c r="K8">
-        <v>0.003503</v>
+        <v>0.003075</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.000295</v>
+        <v>0.000278</v>
       </c>
       <c r="E9">
-        <v>2.254945</v>
+        <v>2.074426</v>
       </c>
       <c r="F9">
-        <v>11.907</v>
+        <v>9.467787</v>
       </c>
       <c r="G9">
-        <v>8.508817000000001</v>
+        <v>6.822909</v>
       </c>
       <c r="H9">
-        <v>17.024344</v>
+        <v>13.46143</v>
       </c>
       <c r="I9">
-        <v>0.002942</v>
+        <v>0.002777</v>
       </c>
       <c r="J9">
-        <v>0.002944</v>
+        <v>0.00278</v>
       </c>
       <c r="K9">
-        <v>0.00294</v>
+        <v>0.002775</v>
       </c>
     </row>
   </sheetData>

--- a/img_user/aumza/testrun/excel_table_groups_ave_std.xlsx
+++ b/img_user/aumza/testrun/excel_table_groups_ave_std.xlsx
@@ -471,28 +471,28 @@
         <v>10392</v>
       </c>
       <c r="D2">
-        <v>0.9865</v>
+        <v>0.986505</v>
       </c>
       <c r="E2">
-        <v>422.809</v>
+        <v>422.798</v>
       </c>
       <c r="F2">
-        <v>619.458357</v>
+        <v>618.870456</v>
       </c>
       <c r="G2">
-        <v>548.492838</v>
+        <v>548.115574</v>
       </c>
       <c r="H2">
-        <v>730.504848</v>
+        <v>729.585113</v>
       </c>
       <c r="I2">
-        <v>4.446831</v>
+        <v>4.44667</v>
       </c>
       <c r="J2">
-        <v>4.417044</v>
+        <v>4.416884</v>
       </c>
       <c r="K2">
-        <v>4.476619</v>
+        <v>4.476456</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -541,28 +541,28 @@
         <v>10392</v>
       </c>
       <c r="D4">
-        <v>0.989374</v>
+        <v>0.989365</v>
       </c>
       <c r="E4">
-        <v>312.952</v>
+        <v>313.061</v>
       </c>
       <c r="F4">
-        <v>443.486783</v>
+        <v>444.058608</v>
       </c>
       <c r="G4">
-        <v>392.671407</v>
+        <v>393.069387</v>
       </c>
       <c r="H4">
-        <v>526.69585</v>
+        <v>527.5455490000001</v>
       </c>
       <c r="I4">
-        <v>3.509212</v>
+        <v>3.509239</v>
       </c>
       <c r="J4">
-        <v>3.474504</v>
+        <v>3.474526</v>
       </c>
       <c r="K4">
-        <v>3.543921</v>
+        <v>3.543952</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,28 +576,28 @@
         <v>10392</v>
       </c>
       <c r="D5">
-        <v>0.987154</v>
+        <v>0.987162</v>
       </c>
       <c r="E5">
-        <v>497.734</v>
+        <v>497.643</v>
       </c>
       <c r="F5">
-        <v>617.486573</v>
+        <v>617.609994</v>
       </c>
       <c r="G5">
-        <v>574.797917</v>
+        <v>574.832186</v>
       </c>
       <c r="H5">
-        <v>683.8249479999999</v>
+        <v>684.098074</v>
       </c>
       <c r="I5">
-        <v>4.744928</v>
+        <v>4.745077</v>
       </c>
       <c r="J5">
-        <v>4.715788</v>
+        <v>4.715939</v>
       </c>
       <c r="K5">
-        <v>4.774068</v>
+        <v>4.774215</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000499</v>
+        <v>0.000463</v>
       </c>
       <c r="E6">
-        <v>4.052471</v>
+        <v>3.901435</v>
       </c>
       <c r="F6">
-        <v>28.667711</v>
+        <v>26.241701</v>
       </c>
       <c r="G6">
-        <v>19.262954</v>
+        <v>17.594217</v>
       </c>
       <c r="H6">
-        <v>43.606979</v>
+        <v>40.045192</v>
       </c>
       <c r="I6">
-        <v>0.005475</v>
+        <v>0.005352</v>
       </c>
       <c r="J6">
-        <v>0.005481</v>
+        <v>0.005358</v>
       </c>
       <c r="K6">
-        <v>0.00547</v>
+        <v>0.005347</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000215</v>
+        <v>0.000218</v>
       </c>
       <c r="E8">
-        <v>1.723861</v>
+        <v>1.717929</v>
       </c>
       <c r="F8">
-        <v>10.077485</v>
+        <v>10.521649</v>
       </c>
       <c r="G8">
-        <v>6.717046</v>
+        <v>6.977986</v>
       </c>
       <c r="H8">
-        <v>15.560486</v>
+        <v>16.296658</v>
       </c>
       <c r="I8">
-        <v>0.003074</v>
+        <v>0.002934</v>
       </c>
       <c r="J8">
-        <v>0.003074</v>
+        <v>0.002933</v>
       </c>
       <c r="K8">
-        <v>0.003075</v>
+        <v>0.002935</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.000278</v>
+        <v>0.000292</v>
       </c>
       <c r="E9">
-        <v>2.074426</v>
+        <v>2.057073</v>
       </c>
       <c r="F9">
-        <v>9.467787</v>
+        <v>10.069861</v>
       </c>
       <c r="G9">
-        <v>6.822909</v>
+        <v>7.206323</v>
       </c>
       <c r="H9">
-        <v>13.46143</v>
+        <v>14.388397</v>
       </c>
       <c r="I9">
-        <v>0.002777</v>
+        <v>0.002761</v>
       </c>
       <c r="J9">
-        <v>0.00278</v>
+        <v>0.002766</v>
       </c>
       <c r="K9">
-        <v>0.002775</v>
+        <v>0.002757</v>
       </c>
     </row>
   </sheetData>
